--- a/数据采集配置.xlsx
+++ b/数据采集配置.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\go-energy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30547C6-F1EF-42A1-B7C5-4BB5EADB7700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525022AA-C5AA-425C-A1A3-BF92C7C0A292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3915" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="设备表" sheetId="19" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="20" r:id="rId2"/>
-    <sheet name="postgresql" sheetId="15" r:id="rId3"/>
+    <sheet name="postgresql" sheetId="15" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">设备表!$A$1:$K$129</definedName>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="199">
   <si>
     <t>车间</t>
   </si>
@@ -631,24 +630,29 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>int16</t>
-  </si>
-  <si>
-    <t>int16</t>
+    <t>float32</t>
+  </si>
+  <si>
+    <t>DB:1</t>
+  </si>
+  <si>
+    <t>float32</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>float32</t>
-  </si>
-  <si>
-    <t>DB:1</t>
+    <t>int32</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.40.13</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -718,12 +722,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -786,7 +784,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -816,9 +814,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1127,11 +1122,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F104" sqref="F104"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1180,7 +1174,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1196,8 +1190,8 @@
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
+      <c r="F2" s="9" t="s">
+        <v>198</v>
       </c>
       <c r="G2" s="2">
         <v>502</v>
@@ -1209,13 +1203,13 @@
         <v>18</v>
       </c>
       <c r="J2" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1244,13 +1238,13 @@
         <v>18</v>
       </c>
       <c r="J3" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1279,13 +1273,13 @@
         <v>18</v>
       </c>
       <c r="J4" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1314,13 +1308,13 @@
         <v>18</v>
       </c>
       <c r="J5" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1349,13 +1343,13 @@
         <v>18</v>
       </c>
       <c r="J6" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1384,13 +1378,13 @@
         <v>18</v>
       </c>
       <c r="J7" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1419,13 +1413,13 @@
         <v>18</v>
       </c>
       <c r="J8" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1454,13 +1448,13 @@
         <v>18</v>
       </c>
       <c r="J9" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1489,13 +1483,13 @@
         <v>18</v>
       </c>
       <c r="J10" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1524,13 +1518,13 @@
         <v>18</v>
       </c>
       <c r="J11" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1559,13 +1553,13 @@
         <v>18</v>
       </c>
       <c r="J12" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1594,13 +1588,13 @@
         <v>18</v>
       </c>
       <c r="J13" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1629,13 +1623,13 @@
         <v>18</v>
       </c>
       <c r="J14" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1664,13 +1658,13 @@
         <v>18</v>
       </c>
       <c r="J15" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1699,13 +1693,13 @@
         <v>18</v>
       </c>
       <c r="J16" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1734,13 +1728,13 @@
         <v>18</v>
       </c>
       <c r="J17" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1769,13 +1763,13 @@
         <v>18</v>
       </c>
       <c r="J18" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1804,13 +1798,13 @@
         <v>18</v>
       </c>
       <c r="J19" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1839,13 +1833,13 @@
         <v>18</v>
       </c>
       <c r="J20" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1874,13 +1868,13 @@
         <v>18</v>
       </c>
       <c r="J21" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1909,13 +1903,13 @@
         <v>18</v>
       </c>
       <c r="J22" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1944,13 +1938,13 @@
         <v>18</v>
       </c>
       <c r="J23" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1979,13 +1973,13 @@
         <v>18</v>
       </c>
       <c r="J24" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2014,10 +2008,10 @@
         <v>18</v>
       </c>
       <c r="J25" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
@@ -2043,7 +2037,7 @@
         <v>102</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I26" s="2">
         <v>500</v>
@@ -2052,7 +2046,7 @@
         <v>4</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
@@ -2078,7 +2072,7 @@
         <v>102</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I27" s="2">
         <v>500</v>
@@ -2087,7 +2081,7 @@
         <v>4</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
@@ -2113,7 +2107,7 @@
         <v>102</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I28" s="2">
         <v>500</v>
@@ -2122,7 +2116,7 @@
         <v>4</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
@@ -2148,7 +2142,7 @@
         <v>102</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I29" s="2">
         <v>910</v>
@@ -2157,7 +2151,7 @@
         <v>4</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
@@ -2183,7 +2177,7 @@
         <v>102</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I30" s="2">
         <v>910</v>
@@ -2192,10 +2186,10 @@
         <v>4</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -2224,13 +2218,13 @@
         <v>18</v>
       </c>
       <c r="J31" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -2259,13 +2253,13 @@
         <v>18</v>
       </c>
       <c r="J32" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -2294,13 +2288,13 @@
         <v>18</v>
       </c>
       <c r="J33" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -2329,13 +2323,13 @@
         <v>18</v>
       </c>
       <c r="J34" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -2364,13 +2358,13 @@
         <v>18</v>
       </c>
       <c r="J35" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -2399,13 +2393,13 @@
         <v>18</v>
       </c>
       <c r="J36" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -2434,13 +2428,13 @@
         <v>18</v>
       </c>
       <c r="J37" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -2469,13 +2463,13 @@
         <v>18</v>
       </c>
       <c r="J38" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -2504,13 +2498,13 @@
         <v>18</v>
       </c>
       <c r="J39" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -2539,13 +2533,13 @@
         <v>18</v>
       </c>
       <c r="J40" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -2574,13 +2568,13 @@
         <v>18</v>
       </c>
       <c r="J41" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -2609,13 +2603,13 @@
         <v>18</v>
       </c>
       <c r="J42" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -2644,13 +2638,13 @@
         <v>18</v>
       </c>
       <c r="J43" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -2679,13 +2673,13 @@
         <v>18</v>
       </c>
       <c r="J44" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -2714,13 +2708,13 @@
         <v>18</v>
       </c>
       <c r="J45" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -2749,13 +2743,13 @@
         <v>18</v>
       </c>
       <c r="J46" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -2784,13 +2778,13 @@
         <v>18</v>
       </c>
       <c r="J47" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -2819,13 +2813,13 @@
         <v>18</v>
       </c>
       <c r="J48" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K48" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -2854,13 +2848,13 @@
         <v>18</v>
       </c>
       <c r="J49" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -2889,13 +2883,13 @@
         <v>18</v>
       </c>
       <c r="J50" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K50" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -2924,13 +2918,13 @@
         <v>18</v>
       </c>
       <c r="J51" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -2959,13 +2953,13 @@
         <v>18</v>
       </c>
       <c r="J52" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -2994,13 +2988,13 @@
         <v>18</v>
       </c>
       <c r="J53" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A54" s="6">
         <v>53</v>
       </c>
@@ -3029,13 +3023,13 @@
         <v>18</v>
       </c>
       <c r="J54" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -3064,10 +3058,10 @@
         <v>18</v>
       </c>
       <c r="J55" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.15">
@@ -3093,7 +3087,7 @@
         <v>102</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I56" s="2">
         <v>500</v>
@@ -3102,7 +3096,7 @@
         <v>4</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
@@ -3128,7 +3122,7 @@
         <v>102</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I57" s="2">
         <v>500</v>
@@ -3137,7 +3131,7 @@
         <v>4</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
@@ -3163,7 +3157,7 @@
         <v>102</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I58" s="2">
         <v>910</v>
@@ -3172,7 +3166,7 @@
         <v>4</v>
       </c>
       <c r="K58" s="9" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
@@ -3198,7 +3192,7 @@
         <v>102</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I59" s="2">
         <v>910</v>
@@ -3207,10 +3201,10 @@
         <v>4</v>
       </c>
       <c r="K59" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -3239,13 +3233,13 @@
         <v>18</v>
       </c>
       <c r="J60" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -3274,13 +3268,13 @@
         <v>18</v>
       </c>
       <c r="J61" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K61" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -3309,10 +3303,10 @@
         <v>18</v>
       </c>
       <c r="J62" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K62" s="9" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.15">
@@ -3338,7 +3332,7 @@
         <v>102</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I63" s="2">
         <v>500</v>
@@ -3347,10 +3341,10 @@
         <v>4</v>
       </c>
       <c r="K63" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -3379,13 +3373,13 @@
         <v>18</v>
       </c>
       <c r="J64" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K64" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -3414,13 +3408,13 @@
         <v>18</v>
       </c>
       <c r="J65" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K65" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -3449,13 +3443,13 @@
         <v>18</v>
       </c>
       <c r="J66" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K66" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -3484,13 +3478,13 @@
         <v>46</v>
       </c>
       <c r="J67" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K67" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -3519,13 +3513,13 @@
         <v>46</v>
       </c>
       <c r="J68" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K68" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -3554,13 +3548,13 @@
         <v>46</v>
       </c>
       <c r="J69" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K69" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -3589,13 +3583,13 @@
         <v>46</v>
       </c>
       <c r="J70" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K70" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -3624,10 +3618,10 @@
         <v>46</v>
       </c>
       <c r="J71" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K71" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.15">
@@ -3653,7 +3647,7 @@
         <v>102</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I72" s="2">
         <v>500</v>
@@ -3662,10 +3656,10 @@
         <v>4</v>
       </c>
       <c r="K72" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -3694,13 +3688,13 @@
         <v>18</v>
       </c>
       <c r="J73" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K73" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A74" s="5">
         <v>73</v>
       </c>
@@ -3729,13 +3723,13 @@
         <v>18</v>
       </c>
       <c r="J74" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K74" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -3764,13 +3758,13 @@
         <v>18</v>
       </c>
       <c r="J75" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A76" s="5">
         <v>75</v>
       </c>
@@ -3799,13 +3793,13 @@
         <v>18</v>
       </c>
       <c r="J76" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K76" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -3834,10 +3828,10 @@
         <v>18</v>
       </c>
       <c r="J77" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K77" s="9" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.15">
@@ -3863,7 +3857,7 @@
         <v>102</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I78" s="2">
         <v>500</v>
@@ -3872,7 +3866,7 @@
         <v>4</v>
       </c>
       <c r="K78" s="9" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.15">
@@ -3898,7 +3892,7 @@
         <v>102</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I79" s="2">
         <v>500</v>
@@ -3907,7 +3901,7 @@
         <v>4</v>
       </c>
       <c r="K79" s="9" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.15">
@@ -3933,7 +3927,7 @@
         <v>102</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I80" s="2">
         <v>500</v>
@@ -3942,7 +3936,7 @@
         <v>4</v>
       </c>
       <c r="K80" s="9" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.15">
@@ -3968,7 +3962,7 @@
         <v>102</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I81" s="2">
         <v>500</v>
@@ -3977,10 +3971,10 @@
         <v>4</v>
       </c>
       <c r="K81" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A82" s="5">
         <v>81</v>
       </c>
@@ -4009,13 +4003,13 @@
         <v>18</v>
       </c>
       <c r="J82" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K82" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -4044,13 +4038,13 @@
         <v>18</v>
       </c>
       <c r="J83" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K83" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A84" s="5">
         <v>83</v>
       </c>
@@ -4079,13 +4073,13 @@
         <v>18</v>
       </c>
       <c r="J84" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K84" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A85" s="2">
         <v>92</v>
       </c>
@@ -4114,13 +4108,13 @@
         <v>18</v>
       </c>
       <c r="J85" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K85" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A86" s="2">
         <v>93</v>
       </c>
@@ -4149,13 +4143,13 @@
         <v>18</v>
       </c>
       <c r="J86" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K86" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A87" s="2">
         <v>94</v>
       </c>
@@ -4184,13 +4178,13 @@
         <v>18</v>
       </c>
       <c r="J87" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K87" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A88" s="2">
         <v>95</v>
       </c>
@@ -4219,13 +4213,13 @@
         <v>18</v>
       </c>
       <c r="J88" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K88" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A89" s="2">
         <v>96</v>
       </c>
@@ -4254,13 +4248,13 @@
         <v>18</v>
       </c>
       <c r="J89" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K89" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A90" s="2">
         <v>97</v>
       </c>
@@ -4289,13 +4283,13 @@
         <v>18</v>
       </c>
       <c r="J90" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K90" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A91" s="2">
         <v>98</v>
       </c>
@@ -4324,13 +4318,13 @@
         <v>18</v>
       </c>
       <c r="J91" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K91" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A92" s="2">
         <v>99</v>
       </c>
@@ -4359,13 +4353,13 @@
         <v>18</v>
       </c>
       <c r="J92" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K92" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A93" s="2">
         <v>100</v>
       </c>
@@ -4394,13 +4388,13 @@
         <v>18</v>
       </c>
       <c r="J93" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K93" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A94" s="2">
         <v>101</v>
       </c>
@@ -4429,13 +4423,13 @@
         <v>18</v>
       </c>
       <c r="J94" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K94" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A95" s="2">
         <v>102</v>
       </c>
@@ -4464,13 +4458,13 @@
         <v>18</v>
       </c>
       <c r="J95" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K95" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A96" s="2">
         <v>103</v>
       </c>
@@ -4499,13 +4493,13 @@
         <v>18</v>
       </c>
       <c r="J96" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K96" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A97" s="2">
         <v>104</v>
       </c>
@@ -4534,13 +4528,13 @@
         <v>18</v>
       </c>
       <c r="J97" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K97" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A98" s="2">
         <v>105</v>
       </c>
@@ -4569,13 +4563,13 @@
         <v>18</v>
       </c>
       <c r="J98" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K98" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A99" s="2">
         <v>106</v>
       </c>
@@ -4604,13 +4598,13 @@
         <v>18</v>
       </c>
       <c r="J99" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K99" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A100" s="2">
         <v>107</v>
       </c>
@@ -4639,13 +4633,13 @@
         <v>18</v>
       </c>
       <c r="J100" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K100" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A101" s="2">
         <v>108</v>
       </c>
@@ -4674,10 +4668,10 @@
         <v>18</v>
       </c>
       <c r="J101" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K101" s="9" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.15">
@@ -4703,7 +4697,7 @@
         <v>102</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I102" s="2">
         <v>500</v>
@@ -4712,7 +4706,7 @@
         <v>4</v>
       </c>
       <c r="K102" s="9" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.15">
@@ -4738,7 +4732,7 @@
         <v>102</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I103" s="2">
         <v>500</v>
@@ -4747,7 +4741,7 @@
         <v>4</v>
       </c>
       <c r="K103" s="9" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.15">
@@ -4773,7 +4767,7 @@
         <v>102</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I104" s="2">
         <v>910</v>
@@ -4782,10 +4776,10 @@
         <v>4</v>
       </c>
       <c r="K104" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A105" s="5">
         <v>113</v>
       </c>
@@ -4814,13 +4808,13 @@
         <v>18</v>
       </c>
       <c r="J105" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K105" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A106" s="5">
         <v>114</v>
       </c>
@@ -4849,13 +4843,13 @@
         <v>18</v>
       </c>
       <c r="J106" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K106" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A107" s="5">
         <v>115</v>
       </c>
@@ -4884,13 +4878,13 @@
         <v>18</v>
       </c>
       <c r="J107" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K107" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A108" s="5">
         <v>116</v>
       </c>
@@ -4919,13 +4913,13 @@
         <v>18</v>
       </c>
       <c r="J108" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K108" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A109" s="5">
         <v>117</v>
       </c>
@@ -4954,13 +4948,13 @@
         <v>18</v>
       </c>
       <c r="J109" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K109" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A110" s="5">
         <v>118</v>
       </c>
@@ -4989,13 +4983,13 @@
         <v>18</v>
       </c>
       <c r="J110" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K110" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A111" s="5">
         <v>119</v>
       </c>
@@ -5024,13 +5018,13 @@
         <v>18</v>
       </c>
       <c r="J111" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K111" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A112" s="5">
         <v>120</v>
       </c>
@@ -5059,10 +5053,10 @@
         <v>18</v>
       </c>
       <c r="J112" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K112" s="9" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.15">
@@ -5088,7 +5082,7 @@
         <v>102</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I113" s="2">
         <v>500</v>
@@ -5097,10 +5091,10 @@
         <v>4</v>
       </c>
       <c r="K113" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A114" s="5">
         <v>123</v>
       </c>
@@ -5129,13 +5123,13 @@
         <v>18</v>
       </c>
       <c r="J114" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K114" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A115" s="5">
         <v>124</v>
       </c>
@@ -5164,13 +5158,13 @@
         <v>18</v>
       </c>
       <c r="J115" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K115" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A116" s="5">
         <v>125</v>
       </c>
@@ -5199,13 +5193,13 @@
         <v>18</v>
       </c>
       <c r="J116" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K116" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A117" s="5">
         <v>126</v>
       </c>
@@ -5234,10 +5228,10 @@
         <v>18</v>
       </c>
       <c r="J117" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K117" s="9" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.15">
@@ -5263,7 +5257,7 @@
         <v>102</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I118" s="2">
         <v>500</v>
@@ -5272,10 +5266,10 @@
         <v>4</v>
       </c>
       <c r="K118" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A119" s="2">
         <v>133</v>
       </c>
@@ -5304,13 +5298,13 @@
         <v>18</v>
       </c>
       <c r="J119" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K119" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A120" s="2">
         <v>144</v>
       </c>
@@ -5339,13 +5333,13 @@
         <v>18</v>
       </c>
       <c r="J120" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K120" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A121" s="2">
         <v>145</v>
       </c>
@@ -5374,13 +5368,13 @@
         <v>18</v>
       </c>
       <c r="J121" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K121" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A122" s="2">
         <v>146</v>
       </c>
@@ -5409,13 +5403,13 @@
         <v>18</v>
       </c>
       <c r="J122" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K122" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A123" s="2">
         <v>147</v>
       </c>
@@ -5444,13 +5438,13 @@
         <v>18</v>
       </c>
       <c r="J123" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K123" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A124" s="2">
         <v>148</v>
       </c>
@@ -5479,13 +5473,13 @@
         <v>18</v>
       </c>
       <c r="J124" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K124" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A125" s="2">
         <v>149</v>
       </c>
@@ -5514,13 +5508,13 @@
         <v>18</v>
       </c>
       <c r="J125" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K125" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A126" s="2">
         <v>150</v>
       </c>
@@ -5549,13 +5543,13 @@
         <v>18</v>
       </c>
       <c r="J126" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K126" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A127" s="2">
         <v>151</v>
       </c>
@@ -5584,13 +5578,13 @@
         <v>18</v>
       </c>
       <c r="J127" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K127" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A128" s="2">
         <v>152</v>
       </c>
@@ -5619,13 +5613,13 @@
         <v>18</v>
       </c>
       <c r="J128" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K128" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A129" s="2">
         <v>153</v>
       </c>
@@ -5654,20 +5648,13 @@
         <v>18</v>
       </c>
       <c r="J129" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K129" s="9" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K129" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="s7_200_smart"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J129">
     <sortCondition ref="A2:A129"/>
   </sortState>
@@ -5678,107 +5665,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43AD9DDC-B4BD-482D-81C5-716B9E41B99A}">
-  <dimension ref="B1:C20"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B1" s="5"/>
-      <c r="C1" s="10"/>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B2" s="5"/>
-      <c r="C2" s="10"/>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B3" s="5"/>
-      <c r="C3" s="10"/>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B4" s="5"/>
-      <c r="C4" s="10"/>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B5" s="5"/>
-      <c r="C5" s="10"/>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B6" s="5"/>
-      <c r="C6" s="10"/>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B7" s="5"/>
-      <c r="C7" s="10"/>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B8" s="5"/>
-      <c r="C8" s="10"/>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B9" s="5"/>
-      <c r="C9" s="10"/>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B10" s="5"/>
-      <c r="C10" s="10"/>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B11" s="5"/>
-      <c r="C11" s="10"/>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B12" s="5"/>
-      <c r="C12" s="10"/>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B13" s="2"/>
-      <c r="C13" s="10"/>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B14" s="5"/>
-      <c r="C14" s="10"/>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B15" s="2"/>
-      <c r="C15" s="10"/>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B16" s="5"/>
-      <c r="C16" s="10"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B17" s="5"/>
-      <c r="C17" s="10"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B18" s="5"/>
-      <c r="C18" s="10"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B19" s="5"/>
-      <c r="C19" s="10"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B20" s="5"/>
-      <c r="C20" s="10"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/数据采集配置.xlsx
+++ b/数据采集配置.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\go-energy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525022AA-C5AA-425C-A1A3-BF92C7C0A292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C0D54C-BAD3-4EAF-982A-6DCC8A69B6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3915" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="设备表" sheetId="19" r:id="rId1"/>
-    <sheet name="postgresql" sheetId="15" r:id="rId2"/>
+    <sheet name="配置表" sheetId="15" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">设备表!$A$1:$K$129</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">设备表!$A$1:$L$129</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="202">
   <si>
     <t>车间</t>
   </si>
@@ -556,32 +556,6 @@
   </si>
   <si>
     <t>10号变压器</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>jldg</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>host</t>
-  </si>
-  <si>
-    <t>10.50.21.151</t>
-  </si>
-  <si>
-    <t>database</t>
-  </si>
-  <si>
-    <t>am12</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>jldg125520</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>3号不带退火中拉丝机</t>
@@ -645,6 +619,50 @@
   </si>
   <si>
     <t>192.168.40.13</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>倍率</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>xs.jldg.com</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jldg123654.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>jldgxcx</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>energy</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOST</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATABASE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>字节序</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>大端</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -784,7 +802,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -806,13 +824,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1122,10 +1143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K129"/>
+  <dimension ref="A1:M129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1139,18 +1160,18 @@
     <col min="9" max="10" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
-        <v>188</v>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>180</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>190</v>
+      <c r="C1" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -1158,23 +1179,29 @@
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>192</v>
+      <c r="G1" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>184</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+        <v>179</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1190,8 +1217,8 @@
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>198</v>
+      <c r="F2" s="7" t="s">
+        <v>190</v>
       </c>
       <c r="G2" s="2">
         <v>502</v>
@@ -1205,11 +1232,17 @@
       <c r="J2" s="2">
         <v>4</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K2" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1240,11 +1273,17 @@
       <c r="J3" s="2">
         <v>4</v>
       </c>
-      <c r="K3" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K3" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1275,11 +1314,17 @@
       <c r="J4" s="2">
         <v>4</v>
       </c>
-      <c r="K4" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K4" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1310,11 +1355,17 @@
       <c r="J5" s="2">
         <v>4</v>
       </c>
-      <c r="K5" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K5" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1345,11 +1396,17 @@
       <c r="J6" s="2">
         <v>4</v>
       </c>
-      <c r="K6" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K6" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1380,11 +1437,17 @@
       <c r="J7" s="2">
         <v>4</v>
       </c>
-      <c r="K7" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K7" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1415,11 +1478,17 @@
       <c r="J8" s="2">
         <v>4</v>
       </c>
-      <c r="K8" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K8" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1450,11 +1519,17 @@
       <c r="J9" s="2">
         <v>4</v>
       </c>
-      <c r="K9" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K9" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1485,11 +1560,17 @@
       <c r="J10" s="2">
         <v>4</v>
       </c>
-      <c r="K10" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K10" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1520,11 +1601,17 @@
       <c r="J11" s="2">
         <v>4</v>
       </c>
-      <c r="K11" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1555,11 +1642,17 @@
       <c r="J12" s="2">
         <v>4</v>
       </c>
-      <c r="K12" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K12" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L12" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1590,11 +1683,17 @@
       <c r="J13" s="2">
         <v>4</v>
       </c>
-      <c r="K13" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K13" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1625,11 +1724,17 @@
       <c r="J14" s="2">
         <v>4</v>
       </c>
-      <c r="K14" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K14" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1660,11 +1765,17 @@
       <c r="J15" s="2">
         <v>4</v>
       </c>
-      <c r="K15" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K15" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1695,11 +1806,17 @@
       <c r="J16" s="2">
         <v>4</v>
       </c>
-      <c r="K16" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K16" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1730,11 +1847,17 @@
       <c r="J17" s="2">
         <v>4</v>
       </c>
-      <c r="K17" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1765,11 +1888,17 @@
       <c r="J18" s="2">
         <v>4</v>
       </c>
-      <c r="K18" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K18" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1800,11 +1929,17 @@
       <c r="J19" s="2">
         <v>4</v>
       </c>
-      <c r="K19" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K19" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1835,11 +1970,17 @@
       <c r="J20" s="2">
         <v>4</v>
       </c>
-      <c r="K20" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K20" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L20" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1870,11 +2011,17 @@
       <c r="J21" s="2">
         <v>4</v>
       </c>
-      <c r="K21" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K21" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L21" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1905,11 +2052,17 @@
       <c r="J22" s="2">
         <v>4</v>
       </c>
-      <c r="K22" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K22" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L22" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1940,11 +2093,17 @@
       <c r="J23" s="2">
         <v>4</v>
       </c>
-      <c r="K23" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K23" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L23" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1975,11 +2134,17 @@
       <c r="J24" s="2">
         <v>4</v>
       </c>
-      <c r="K24" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K24" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L24" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2010,11 +2175,17 @@
       <c r="J25" s="2">
         <v>4</v>
       </c>
-      <c r="K25" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K25" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L25" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -2037,7 +2208,7 @@
         <v>102</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="I26" s="2">
         <v>500</v>
@@ -2045,11 +2216,17 @@
       <c r="J26" s="2">
         <v>4</v>
       </c>
-      <c r="K26" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L26" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -2072,7 +2249,7 @@
         <v>102</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="I27" s="2">
         <v>500</v>
@@ -2080,11 +2257,17 @@
       <c r="J27" s="2">
         <v>4</v>
       </c>
-      <c r="K27" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K27" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L27" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -2107,7 +2290,7 @@
         <v>102</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="I28" s="2">
         <v>500</v>
@@ -2115,11 +2298,17 @@
       <c r="J28" s="2">
         <v>4</v>
       </c>
-      <c r="K28" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K28" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L28" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -2142,7 +2331,7 @@
         <v>102</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="I29" s="2">
         <v>910</v>
@@ -2150,11 +2339,17 @@
       <c r="J29" s="2">
         <v>4</v>
       </c>
-      <c r="K29" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K29" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L29" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -2177,7 +2372,7 @@
         <v>102</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="I30" s="2">
         <v>910</v>
@@ -2185,11 +2380,17 @@
       <c r="J30" s="2">
         <v>4</v>
       </c>
-      <c r="K30" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K30" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L30" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -2220,11 +2421,17 @@
       <c r="J31" s="2">
         <v>4</v>
       </c>
-      <c r="K31" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K31" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L31" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -2255,11 +2462,17 @@
       <c r="J32" s="2">
         <v>4</v>
       </c>
-      <c r="K32" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K32" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L32" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -2290,11 +2503,17 @@
       <c r="J33" s="2">
         <v>4</v>
       </c>
-      <c r="K33" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K33" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L33" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -2325,11 +2544,17 @@
       <c r="J34" s="2">
         <v>4</v>
       </c>
-      <c r="K34" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K34" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L34" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -2360,11 +2585,17 @@
       <c r="J35" s="2">
         <v>4</v>
       </c>
-      <c r="K35" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K35" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L35" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -2395,11 +2626,17 @@
       <c r="J36" s="2">
         <v>4</v>
       </c>
-      <c r="K36" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K36" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L36" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -2430,11 +2667,17 @@
       <c r="J37" s="2">
         <v>4</v>
       </c>
-      <c r="K37" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K37" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L37" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -2465,11 +2708,17 @@
       <c r="J38" s="2">
         <v>4</v>
       </c>
-      <c r="K38" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K38" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L38" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -2500,11 +2749,17 @@
       <c r="J39" s="2">
         <v>4</v>
       </c>
-      <c r="K39" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K39" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L39" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M39" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -2535,11 +2790,17 @@
       <c r="J40" s="2">
         <v>4</v>
       </c>
-      <c r="K40" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K40" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L40" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M40" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -2570,11 +2831,17 @@
       <c r="J41" s="2">
         <v>4</v>
       </c>
-      <c r="K41" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K41" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L41" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M41" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -2605,11 +2872,17 @@
       <c r="J42" s="2">
         <v>4</v>
       </c>
-      <c r="K42" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K42" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L42" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M42" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -2640,11 +2913,17 @@
       <c r="J43" s="2">
         <v>4</v>
       </c>
-      <c r="K43" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K43" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L43" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M43" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -2675,11 +2954,17 @@
       <c r="J44" s="2">
         <v>4</v>
       </c>
-      <c r="K44" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K44" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L44" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M44" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -2710,11 +2995,17 @@
       <c r="J45" s="2">
         <v>4</v>
       </c>
-      <c r="K45" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K45" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L45" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M45" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -2745,11 +3036,17 @@
       <c r="J46" s="2">
         <v>4</v>
       </c>
-      <c r="K46" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K46" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L46" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M46" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -2780,11 +3077,17 @@
       <c r="J47" s="2">
         <v>4</v>
       </c>
-      <c r="K47" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K47" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L47" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M47" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -2815,11 +3118,17 @@
       <c r="J48" s="2">
         <v>4</v>
       </c>
-      <c r="K48" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K48" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L48" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M48" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -2850,11 +3159,17 @@
       <c r="J49" s="2">
         <v>4</v>
       </c>
-      <c r="K49" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K49" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L49" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M49" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -2885,11 +3200,17 @@
       <c r="J50" s="2">
         <v>4</v>
       </c>
-      <c r="K50" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K50" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L50" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M50" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -2920,11 +3241,17 @@
       <c r="J51" s="2">
         <v>4</v>
       </c>
-      <c r="K51" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K51" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L51" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M51" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -2955,11 +3282,17 @@
       <c r="J52" s="2">
         <v>4</v>
       </c>
-      <c r="K52" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K52" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L52" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M52" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -2990,11 +3323,17 @@
       <c r="J53" s="2">
         <v>4</v>
       </c>
-      <c r="K53" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K53" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L53" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M53" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A54" s="6">
         <v>53</v>
       </c>
@@ -3025,11 +3364,17 @@
       <c r="J54" s="2">
         <v>4</v>
       </c>
-      <c r="K54" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K54" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L54" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M54" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -3060,11 +3405,17 @@
       <c r="J55" s="2">
         <v>4</v>
       </c>
-      <c r="K55" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K55" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L55" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M55" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -3087,7 +3438,7 @@
         <v>102</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="I56" s="2">
         <v>500</v>
@@ -3095,11 +3446,17 @@
       <c r="J56" s="2">
         <v>4</v>
       </c>
-      <c r="K56" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K56" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L56" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M56" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A57" s="5">
         <v>56</v>
       </c>
@@ -3122,7 +3479,7 @@
         <v>102</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="I57" s="2">
         <v>500</v>
@@ -3130,11 +3487,17 @@
       <c r="J57" s="2">
         <v>4</v>
       </c>
-      <c r="K57" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K57" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L57" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M57" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A58" s="5">
         <v>57</v>
       </c>
@@ -3157,7 +3520,7 @@
         <v>102</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="I58" s="2">
         <v>910</v>
@@ -3165,11 +3528,17 @@
       <c r="J58" s="2">
         <v>4</v>
       </c>
-      <c r="K58" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K58" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L58" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M58" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -3192,7 +3561,7 @@
         <v>102</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="I59" s="2">
         <v>910</v>
@@ -3200,11 +3569,17 @@
       <c r="J59" s="2">
         <v>4</v>
       </c>
-      <c r="K59" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K59" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L59" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M59" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -3235,11 +3610,17 @@
       <c r="J60" s="2">
         <v>4</v>
       </c>
-      <c r="K60" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K60" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L60" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M60" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -3270,11 +3651,17 @@
       <c r="J61" s="2">
         <v>4</v>
       </c>
-      <c r="K61" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K61" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L61" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M61" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -3305,11 +3692,17 @@
       <c r="J62" s="2">
         <v>4</v>
       </c>
-      <c r="K62" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K62" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L62" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M62" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -3332,7 +3725,7 @@
         <v>102</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="I63" s="2">
         <v>500</v>
@@ -3340,11 +3733,17 @@
       <c r="J63" s="2">
         <v>4</v>
       </c>
-      <c r="K63" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K63" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L63" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M63" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -3375,11 +3774,17 @@
       <c r="J64" s="2">
         <v>4</v>
       </c>
-      <c r="K64" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K64" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L64" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M64" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -3410,11 +3815,17 @@
       <c r="J65" s="2">
         <v>4</v>
       </c>
-      <c r="K65" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K65" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L65" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M65" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -3445,28 +3856,34 @@
       <c r="J66" s="2">
         <v>4</v>
       </c>
-      <c r="K66" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K66" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L66" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M66" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A67" s="2">
         <v>66</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G67" s="2">
         <v>502</v>
@@ -3480,11 +3897,17 @@
       <c r="J67" s="2">
         <v>4</v>
       </c>
-      <c r="K67" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K67" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L67" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M67" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -3495,13 +3918,13 @@
         <v>36</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G68" s="2">
         <v>502</v>
@@ -3515,11 +3938,17 @@
       <c r="J68" s="2">
         <v>4</v>
       </c>
-      <c r="K68" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K68" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L68" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M68" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -3530,13 +3959,13 @@
         <v>36</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G69" s="2">
         <v>502</v>
@@ -3550,11 +3979,17 @@
       <c r="J69" s="2">
         <v>4</v>
       </c>
-      <c r="K69" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K69" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L69" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M69" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -3565,13 +4000,13 @@
         <v>36</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G70" s="2">
         <v>502</v>
@@ -3585,11 +4020,17 @@
       <c r="J70" s="2">
         <v>4</v>
       </c>
-      <c r="K70" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K70" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L70" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M70" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -3600,13 +4041,13 @@
         <v>36</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G71" s="2">
         <v>502</v>
@@ -3620,11 +4061,17 @@
       <c r="J71" s="2">
         <v>4</v>
       </c>
-      <c r="K71" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K71" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L71" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M71" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A72" s="5">
         <v>71</v>
       </c>
@@ -3647,7 +4094,7 @@
         <v>102</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="I72" s="2">
         <v>500</v>
@@ -3655,11 +4102,17 @@
       <c r="J72" s="2">
         <v>4</v>
       </c>
-      <c r="K72" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K72" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L72" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M72" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -3690,11 +4143,17 @@
       <c r="J73" s="2">
         <v>4</v>
       </c>
-      <c r="K73" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K73" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L73" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M73" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A74" s="5">
         <v>73</v>
       </c>
@@ -3725,11 +4184,17 @@
       <c r="J74" s="2">
         <v>4</v>
       </c>
-      <c r="K74" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K74" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L74" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M74" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -3760,11 +4225,17 @@
       <c r="J75" s="2">
         <v>4</v>
       </c>
-      <c r="K75" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K75" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L75" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M75" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A76" s="5">
         <v>75</v>
       </c>
@@ -3795,11 +4266,17 @@
       <c r="J76" s="2">
         <v>4</v>
       </c>
-      <c r="K76" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K76" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L76" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M76" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -3830,11 +4307,17 @@
       <c r="J77" s="2">
         <v>4</v>
       </c>
-      <c r="K77" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K77" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L77" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M77" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A78" s="5">
         <v>77</v>
       </c>
@@ -3857,7 +4340,7 @@
         <v>102</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="I78" s="2">
         <v>500</v>
@@ -3865,11 +4348,17 @@
       <c r="J78" s="2">
         <v>4</v>
       </c>
-      <c r="K78" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K78" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L78" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M78" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -3892,7 +4381,7 @@
         <v>102</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="I79" s="2">
         <v>500</v>
@@ -3900,11 +4389,17 @@
       <c r="J79" s="2">
         <v>4</v>
       </c>
-      <c r="K79" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K79" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L79" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M79" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A80" s="5">
         <v>79</v>
       </c>
@@ -3927,7 +4422,7 @@
         <v>102</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="I80" s="2">
         <v>500</v>
@@ -3935,11 +4430,17 @@
       <c r="J80" s="2">
         <v>4</v>
       </c>
-      <c r="K80" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K80" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L80" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M80" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -3962,7 +4463,7 @@
         <v>102</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="I81" s="2">
         <v>500</v>
@@ -3970,11 +4471,17 @@
       <c r="J81" s="2">
         <v>4</v>
       </c>
-      <c r="K81" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K81" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L81" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M81" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A82" s="5">
         <v>81</v>
       </c>
@@ -4005,11 +4512,17 @@
       <c r="J82" s="2">
         <v>4</v>
       </c>
-      <c r="K82" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K82" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L82" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M82" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -4040,11 +4553,17 @@
       <c r="J83" s="2">
         <v>4</v>
       </c>
-      <c r="K83" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K83" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L83" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M83" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A84" s="5">
         <v>83</v>
       </c>
@@ -4075,11 +4594,17 @@
       <c r="J84" s="2">
         <v>4</v>
       </c>
-      <c r="K84" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K84" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L84" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M84" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A85" s="2">
         <v>92</v>
       </c>
@@ -4110,11 +4635,17 @@
       <c r="J85" s="2">
         <v>4</v>
       </c>
-      <c r="K85" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K85" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L85" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M85" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A86" s="2">
         <v>93</v>
       </c>
@@ -4145,11 +4676,17 @@
       <c r="J86" s="2">
         <v>4</v>
       </c>
-      <c r="K86" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K86" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L86" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M86" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A87" s="2">
         <v>94</v>
       </c>
@@ -4180,11 +4717,17 @@
       <c r="J87" s="2">
         <v>4</v>
       </c>
-      <c r="K87" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K87" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L87" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M87" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A88" s="2">
         <v>95</v>
       </c>
@@ -4215,11 +4758,17 @@
       <c r="J88" s="2">
         <v>4</v>
       </c>
-      <c r="K88" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K88" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L88" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M88" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A89" s="2">
         <v>96</v>
       </c>
@@ -4250,11 +4799,17 @@
       <c r="J89" s="2">
         <v>4</v>
       </c>
-      <c r="K89" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K89" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L89" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M89" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A90" s="2">
         <v>97</v>
       </c>
@@ -4285,11 +4840,17 @@
       <c r="J90" s="2">
         <v>4</v>
       </c>
-      <c r="K90" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K90" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L90" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M90" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A91" s="2">
         <v>98</v>
       </c>
@@ -4320,11 +4881,17 @@
       <c r="J91" s="2">
         <v>4</v>
       </c>
-      <c r="K91" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K91" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L91" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M91" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A92" s="2">
         <v>99</v>
       </c>
@@ -4355,11 +4922,17 @@
       <c r="J92" s="2">
         <v>4</v>
       </c>
-      <c r="K92" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K92" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L92" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M92" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A93" s="2">
         <v>100</v>
       </c>
@@ -4390,11 +4963,17 @@
       <c r="J93" s="2">
         <v>4</v>
       </c>
-      <c r="K93" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K93" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L93" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M93" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A94" s="2">
         <v>101</v>
       </c>
@@ -4425,11 +5004,17 @@
       <c r="J94" s="2">
         <v>4</v>
       </c>
-      <c r="K94" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K94" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L94" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M94" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A95" s="2">
         <v>102</v>
       </c>
@@ -4460,11 +5045,17 @@
       <c r="J95" s="2">
         <v>4</v>
       </c>
-      <c r="K95" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K95" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L95" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M95" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A96" s="2">
         <v>103</v>
       </c>
@@ -4495,11 +5086,17 @@
       <c r="J96" s="2">
         <v>4</v>
       </c>
-      <c r="K96" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K96" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L96" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M96" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A97" s="2">
         <v>104</v>
       </c>
@@ -4530,11 +5127,17 @@
       <c r="J97" s="2">
         <v>4</v>
       </c>
-      <c r="K97" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K97" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L97" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M97" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A98" s="2">
         <v>105</v>
       </c>
@@ -4565,11 +5168,17 @@
       <c r="J98" s="2">
         <v>4</v>
       </c>
-      <c r="K98" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K98" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L98" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M98" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A99" s="2">
         <v>106</v>
       </c>
@@ -4600,11 +5209,17 @@
       <c r="J99" s="2">
         <v>4</v>
       </c>
-      <c r="K99" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K99" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L99" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M99" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A100" s="2">
         <v>107</v>
       </c>
@@ -4635,11 +5250,17 @@
       <c r="J100" s="2">
         <v>4</v>
       </c>
-      <c r="K100" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K100" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L100" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M100" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A101" s="2">
         <v>108</v>
       </c>
@@ -4670,11 +5291,17 @@
       <c r="J101" s="2">
         <v>4</v>
       </c>
-      <c r="K101" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K101" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L101" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M101" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A102" s="5">
         <v>110</v>
       </c>
@@ -4697,7 +5324,7 @@
         <v>102</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="I102" s="2">
         <v>500</v>
@@ -4705,11 +5332,17 @@
       <c r="J102" s="2">
         <v>4</v>
       </c>
-      <c r="K102" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K102" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L102" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M102" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A103" s="5">
         <v>111</v>
       </c>
@@ -4732,7 +5365,7 @@
         <v>102</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="I103" s="2">
         <v>500</v>
@@ -4740,11 +5373,17 @@
       <c r="J103" s="2">
         <v>4</v>
       </c>
-      <c r="K103" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K103" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L103" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M103" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A104" s="5">
         <v>112</v>
       </c>
@@ -4767,7 +5406,7 @@
         <v>102</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="I104" s="2">
         <v>910</v>
@@ -4775,11 +5414,17 @@
       <c r="J104" s="2">
         <v>4</v>
       </c>
-      <c r="K104" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K104" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L104" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M104" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A105" s="5">
         <v>113</v>
       </c>
@@ -4810,11 +5455,17 @@
       <c r="J105" s="2">
         <v>4</v>
       </c>
-      <c r="K105" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K105" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L105" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M105" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A106" s="5">
         <v>114</v>
       </c>
@@ -4845,11 +5496,17 @@
       <c r="J106" s="2">
         <v>4</v>
       </c>
-      <c r="K106" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K106" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L106" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M106" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A107" s="5">
         <v>115</v>
       </c>
@@ -4880,11 +5537,17 @@
       <c r="J107" s="2">
         <v>4</v>
       </c>
-      <c r="K107" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K107" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L107" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M107" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A108" s="5">
         <v>116</v>
       </c>
@@ -4915,11 +5578,17 @@
       <c r="J108" s="2">
         <v>4</v>
       </c>
-      <c r="K108" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K108" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L108" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M108" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A109" s="5">
         <v>117</v>
       </c>
@@ -4950,11 +5619,17 @@
       <c r="J109" s="2">
         <v>4</v>
       </c>
-      <c r="K109" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K109" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L109" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M109" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A110" s="5">
         <v>118</v>
       </c>
@@ -4985,11 +5660,17 @@
       <c r="J110" s="2">
         <v>4</v>
       </c>
-      <c r="K110" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K110" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L110" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M110" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A111" s="5">
         <v>119</v>
       </c>
@@ -5020,11 +5701,17 @@
       <c r="J111" s="2">
         <v>4</v>
       </c>
-      <c r="K111" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K111" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L111" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M111" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A112" s="5">
         <v>120</v>
       </c>
@@ -5055,11 +5742,17 @@
       <c r="J112" s="2">
         <v>4</v>
       </c>
-      <c r="K112" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K112" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L112" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M112" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A113" s="5">
         <v>122</v>
       </c>
@@ -5082,7 +5775,7 @@
         <v>102</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="I113" s="2">
         <v>500</v>
@@ -5090,11 +5783,17 @@
       <c r="J113" s="2">
         <v>4</v>
       </c>
-      <c r="K113" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K113" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L113" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M113" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A114" s="5">
         <v>123</v>
       </c>
@@ -5125,11 +5824,17 @@
       <c r="J114" s="2">
         <v>4</v>
       </c>
-      <c r="K114" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K114" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L114" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M114" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A115" s="5">
         <v>124</v>
       </c>
@@ -5160,11 +5865,17 @@
       <c r="J115" s="2">
         <v>4</v>
       </c>
-      <c r="K115" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K115" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L115" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M115" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A116" s="5">
         <v>125</v>
       </c>
@@ -5195,11 +5906,17 @@
       <c r="J116" s="2">
         <v>4</v>
       </c>
-      <c r="K116" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K116" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L116" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M116" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A117" s="5">
         <v>126</v>
       </c>
@@ -5230,11 +5947,17 @@
       <c r="J117" s="2">
         <v>4</v>
       </c>
-      <c r="K117" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K117" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L117" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M117" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A118" s="5">
         <v>129</v>
       </c>
@@ -5257,7 +5980,7 @@
         <v>102</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="I118" s="2">
         <v>500</v>
@@ -5265,11 +5988,17 @@
       <c r="J118" s="2">
         <v>4</v>
       </c>
-      <c r="K118" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K118" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L118" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M118" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A119" s="2">
         <v>133</v>
       </c>
@@ -5300,11 +6029,17 @@
       <c r="J119" s="2">
         <v>4</v>
       </c>
-      <c r="K119" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K119" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L119" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M119" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A120" s="2">
         <v>144</v>
       </c>
@@ -5335,11 +6070,17 @@
       <c r="J120" s="2">
         <v>4</v>
       </c>
-      <c r="K120" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K120" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L120" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M120" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A121" s="2">
         <v>145</v>
       </c>
@@ -5370,11 +6111,17 @@
       <c r="J121" s="2">
         <v>4</v>
       </c>
-      <c r="K121" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K121" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L121" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M121" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A122" s="2">
         <v>146</v>
       </c>
@@ -5405,11 +6152,17 @@
       <c r="J122" s="2">
         <v>4</v>
       </c>
-      <c r="K122" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K122" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L122" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M122" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A123" s="2">
         <v>147</v>
       </c>
@@ -5440,11 +6193,17 @@
       <c r="J123" s="2">
         <v>4</v>
       </c>
-      <c r="K123" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K123" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L123" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M123" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A124" s="2">
         <v>148</v>
       </c>
@@ -5475,11 +6234,17 @@
       <c r="J124" s="2">
         <v>4</v>
       </c>
-      <c r="K124" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K124" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L124" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M124" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A125" s="2">
         <v>149</v>
       </c>
@@ -5510,11 +6275,17 @@
       <c r="J125" s="2">
         <v>4</v>
       </c>
-      <c r="K125" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K125" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L125" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M125" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A126" s="2">
         <v>150</v>
       </c>
@@ -5545,11 +6316,17 @@
       <c r="J126" s="2">
         <v>4</v>
       </c>
-      <c r="K126" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K126" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L126" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M126" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A127" s="2">
         <v>151</v>
       </c>
@@ -5580,11 +6357,17 @@
       <c r="J127" s="2">
         <v>4</v>
       </c>
-      <c r="K127" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K127" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L127" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M127" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A128" s="2">
         <v>152</v>
       </c>
@@ -5615,11 +6398,17 @@
       <c r="J128" s="2">
         <v>4</v>
       </c>
-      <c r="K128" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K128" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L128" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M128" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A129" s="2">
         <v>153</v>
       </c>
@@ -5650,8 +6439,14 @@
       <c r="J129" s="2">
         <v>4</v>
       </c>
-      <c r="K129" s="9" t="s">
-        <v>197</v>
+      <c r="K129" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L129" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M129" s="7" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -5666,48 +6461,56 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B1" t="s">
-        <v>174</v>
+      <c r="A1" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>180</v>
+      <c r="A2" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B3" t="s">
-        <v>177</v>
+      <c r="A3" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>179</v>
+      <c r="A4" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
